--- a/Batch/Batch Function 20170130 For Dev.xlsx
+++ b/Batch/Batch Function 20170130 For Dev.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Project\CPAC\Batch\Batch Update Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Project\CPAC\Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,8 +28,128 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sirirat-NB</author>
+  </authors>
+  <commentList>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Sirirat-NB:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+SIEBLE Search WL,WLC Letter - Outbound</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Sirirat-NB:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+ในเอกสาร Siebel find ด้วย PLUGIN_ACTV_yyyymmdd_hh24miss.dat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Sirirat-NB:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+ในเอกสาร Siebel find ด้วย ExemptUpdate_yyyymmdd_hh24miss.dat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Sirirat-NB:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+ในเอกสาร SFF find ด้วย PLUGIN_ACTV_yyyymmdd_hh24miss.dat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C56" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Sirirat-NB:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+เอกสาร Blacklist ดูว่าเป็น blacklist หรือ deblacklist จาก field blacklistflag</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="408">
   <si>
     <t>SMS</t>
   </si>
@@ -1771,7 +1891,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -1817,8 +1937,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1828,6 +1959,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,7 +1982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1893,6 +2030,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2175,13 +2318,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.5"/>
@@ -2477,67 +2620,76 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="1:7" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A19" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B20" s="11" t="s">
         <v>0</v>
       </c>
@@ -2557,7 +2709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="229.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="229.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B21" s="11" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B22" s="15" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +2746,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B23" s="11" t="s">
         <v>41</v>
       </c>
@@ -2614,7 +2766,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B24" s="11" t="s">
         <v>41</v>
       </c>
@@ -2634,7 +2786,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
@@ -2654,7 +2806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B26" s="11" t="s">
         <v>41</v>
       </c>
@@ -2674,7 +2826,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B27" s="11" t="s">
         <v>41</v>
       </c>
@@ -2694,7 +2846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B28" s="11" t="s">
         <v>41</v>
       </c>
@@ -2714,7 +2866,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
@@ -2734,7 +2886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="63.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.5">
       <c r="B30" s="11" t="s">
         <v>41</v>
       </c>
@@ -2752,7 +2904,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B31" s="15" t="s">
         <v>41</v>
       </c>
@@ -2769,7 +2921,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B32" s="11" t="s">
         <v>41</v>
       </c>
@@ -3153,26 +3305,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:7" s="17" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="A53" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3216,20 +3368,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="15" t="s">
+    <row r="56" spans="1:7" s="17" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="A56" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="15" t="s">
+      <c r="D56" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="17" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3566,26 +3721,26 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
-      <c r="A75" s="15" t="s">
+    <row r="75" spans="1:7" s="17" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="A75" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="G75" s="17" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3629,23 +3784,23 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.5">
-      <c r="A78" s="15" t="s">
+    <row r="78" spans="1:7" s="17" customFormat="1" ht="63.75" x14ac:dyDescent="0.5">
+      <c r="A78" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="16" t="s">
+      <c r="D78" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3909,6 +4064,7 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Batch/Batch Function 20170130 For Dev.xlsx
+++ b/Batch/Batch Function 20170130 For Dev.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="410">
   <si>
     <t>SMS</t>
   </si>
@@ -1885,6 +1885,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Unit Test</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF9BC2E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2032,10 +2038,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2045,6 +2051,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9BC2E6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2320,11 +2331,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.5"/>
@@ -2339,7 +2350,7 @@
     <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:9" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="s">
         <v>48</v>
       </c>
@@ -2355,11 +2366,17 @@
       <c r="F1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
+      <c r="H1" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2376,7 +2393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2393,7 +2410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -2410,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2430,7 +2447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
@@ -2450,7 +2467,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
@@ -2467,7 +2484,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
@@ -2484,7 +2501,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
@@ -2501,7 +2518,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
@@ -2518,7 +2535,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
@@ -2535,7 +2552,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B12" s="11" t="s">
         <v>68</v>
       </c>
@@ -2552,7 +2569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B13" s="11" t="s">
         <v>68</v>
       </c>
@@ -2569,7 +2586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B14" s="11" t="s">
         <v>68</v>
       </c>
@@ -2586,7 +2603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B15" s="11" t="s">
         <v>68</v>
       </c>
@@ -2603,7 +2620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B16" s="11" t="s">
         <v>68</v>
       </c>
@@ -2620,72 +2637,72 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:7" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A19" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3228,7 +3245,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B49" s="11" t="s">
         <v>25</v>
       </c>
@@ -3248,7 +3265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B50" s="11" t="s">
         <v>26</v>
       </c>
@@ -3268,7 +3285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B51" s="11" t="s">
         <v>26</v>
       </c>
@@ -3288,7 +3305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B52" s="11" t="s">
         <v>26</v>
       </c>
@@ -3305,30 +3322,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="17" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="A53" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+      <c r="H53" s="15">
+        <v>100</v>
+      </c>
+      <c r="I53" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B54" s="11" t="s">
         <v>27</v>
       </c>
@@ -3348,7 +3371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B55" s="11" t="s">
         <v>27</v>
       </c>
@@ -3368,27 +3391,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="17" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="A56" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="17" t="s">
+      <c r="D56" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="15" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="H56" s="15">
+        <v>100</v>
+      </c>
+      <c r="I56" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B57" s="11" t="s">
         <v>61</v>
       </c>
@@ -3408,7 +3437,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B58" s="11" t="s">
         <v>61</v>
       </c>
@@ -3425,7 +3454,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="15" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:9" s="15" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B59" s="15" t="s">
         <v>61</v>
       </c>
@@ -3442,7 +3471,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B60" s="11" t="s">
         <v>80</v>
       </c>
@@ -3462,7 +3491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B61" s="11" t="s">
         <v>80</v>
       </c>
@@ -3482,7 +3511,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B62" s="11" t="s">
         <v>80</v>
       </c>
@@ -3502,7 +3531,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="15" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:9" s="15" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B63" s="15" t="s">
         <v>80</v>
       </c>
@@ -3519,7 +3548,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B64" s="11" t="s">
         <v>80</v>
       </c>
@@ -3536,7 +3565,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="204" hidden="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:9" ht="204" hidden="1" x14ac:dyDescent="0.5">
       <c r="B65" s="11" t="s">
         <v>80</v>
       </c>
@@ -3556,7 +3585,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B66" s="11" t="s">
         <v>80</v>
       </c>
@@ -3573,7 +3602,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B67" s="11" t="s">
         <v>80</v>
       </c>
@@ -3590,7 +3619,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="89.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:9" ht="89.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B68" s="11" t="s">
         <v>80</v>
       </c>
@@ -3610,7 +3639,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B69" s="11" t="s">
         <v>80</v>
       </c>
@@ -3627,7 +3656,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B70" s="11" t="s">
         <v>80</v>
       </c>
@@ -3644,7 +3673,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B71" s="11" t="s">
         <v>80</v>
       </c>
@@ -3661,7 +3690,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B72" s="11" t="s">
         <v>80</v>
       </c>
@@ -3681,7 +3710,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="15" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:9" s="15" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.5">
       <c r="B73" s="15" t="s">
         <v>174</v>
       </c>
@@ -3701,7 +3730,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B74" s="11" t="s">
         <v>115</v>
       </c>
@@ -3721,30 +3750,36 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="17" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
-      <c r="A75" s="17" t="s">
+    <row r="75" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="A75" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="G75" s="17" t="s">
+      <c r="G75" s="15" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="H75" s="15">
+        <v>100</v>
+      </c>
+      <c r="I75" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B76" s="11" t="s">
         <v>177</v>
       </c>
@@ -3764,7 +3799,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B77" s="11" t="s">
         <v>177</v>
       </c>
@@ -3784,27 +3819,33 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="17" customFormat="1" ht="63.75" x14ac:dyDescent="0.5">
-      <c r="A78" s="17" t="s">
+    <row r="78" spans="1:9" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.5">
+      <c r="A78" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="18" t="s">
+      <c r="D78" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="15" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="H78" s="15">
+        <v>100</v>
+      </c>
+      <c r="I78" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B79" s="11" t="s">
         <v>177</v>
       </c>
@@ -3824,7 +3865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="76.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:9" ht="76.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B80" s="11" t="s">
         <v>130</v>
       </c>

--- a/Batch/Batch Function 20170130 For Dev.xlsx
+++ b/Batch/Batch Function 20170130 For Dev.xlsx
@@ -144,12 +144,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="F87" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Sirirat-NB:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Collection Interface ระบบ SFF-Credit Control v.2.1 20160912.docx</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F89" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Sirirat-NB:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Collection Interface ระบบ SFF-Credit Control v.2.1 20160912.docx</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="411">
   <si>
     <t>SMS</t>
   </si>
@@ -188,9 +232,6 @@
   </si>
   <si>
     <t>Write Off Flag</t>
-  </si>
-  <si>
-    <t>Exempt_BL_DL_yyyymmdd_hh24miss.dat</t>
   </si>
   <si>
     <t>PLUGIN_ACTV_yyyymmdd_hh24miss.dat</t>
@@ -1892,12 +1933,18 @@
   <si>
     <t>Unit Test</t>
   </si>
+  <si>
+    <t>น้องโจ้ทีมพี่วรทำแล้ว</t>
+  </si>
+  <si>
+    <t>Req_Exempt_Credit_Control_YYYYMMDD_HH24MISS.dat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -1954,6 +2001,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1988,7 +2042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2044,13 +2098,44 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF9BC2E6"/>
@@ -2334,8 +2419,8 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.5"/>
@@ -2352,28 +2437,28 @@
   <sheetData>
     <row r="1" spans="2:9" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="H1" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>408</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
@@ -2384,10 +2469,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -2401,10 +2486,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>7</v>
@@ -2418,10 +2503,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>8</v>
@@ -2435,16 +2520,16 @@
         <v>5</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
@@ -2452,19 +2537,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
@@ -2472,16 +2557,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
@@ -2489,16 +2574,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
@@ -2506,16 +2591,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
@@ -2523,16 +2608,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
@@ -2540,809 +2625,818 @@
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B12" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B14" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B15" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B16" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A17" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.5">
+        <v>13</v>
+      </c>
+      <c r="H17" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="A19" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A19" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="E19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="G19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B20" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="229.5" hidden="1" x14ac:dyDescent="0.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="229.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B21" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="22" spans="1:8" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B22" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="63.75" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>168</v>
-      </c>
       <c r="D31" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B32" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B33" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B34" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B35" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B36" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B37" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B39" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B40" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B42" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="140.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B43" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B44" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="63.75" hidden="1" x14ac:dyDescent="0.5">
       <c r="B45" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B46" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B47" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B48" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B49" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B50" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B51" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B52" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
       <c r="A53" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B53" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="D53" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H53" s="15">
         <v>100</v>
@@ -3353,62 +3447,62 @@
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B54" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B55" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
       <c r="A56" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H56" s="15">
         <v>100</v>
@@ -3419,358 +3513,358 @@
     </row>
     <row r="57" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B57" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="D57" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="11" t="s">
+      <c r="F57" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B58" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="11" t="s">
+      <c r="F58" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="15" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B59" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B60" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B61" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B62" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="15" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B63" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B64" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="204" hidden="1" x14ac:dyDescent="0.5">
       <c r="B65" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B66" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B67" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="89.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B68" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F68" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B69" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B70" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B71" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B72" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="G72" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="15" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.5">
       <c r="B73" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="D73" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D73" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>176</v>
-      </c>
       <c r="G73" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B74" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
       <c r="A75" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B75" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="H75" s="15">
         <v>100</v>
@@ -3781,62 +3875,62 @@
     </row>
     <row r="76" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B76" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="G76" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B77" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.5">
       <c r="A78" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B78" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="D78" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="16" t="s">
+      <c r="F78" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="H78" s="15">
         <v>100</v>
@@ -3847,252 +3941,261 @@
     </row>
     <row r="79" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B79" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="76.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B80" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="D80" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F80" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D80" s="11" t="s">
+    </row>
+    <row r="81" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B81" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B82" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B83" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B84" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B81" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="C84" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B85" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B86" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A87" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F87" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="G87" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B88" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B82" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B84" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F84" s="11" t="s">
+      <c r="C88" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B85" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="E88" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="76.5" x14ac:dyDescent="0.5">
+      <c r="A89" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="C89" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B90" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B91" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D86" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B87" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B88" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="76.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B89" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B90" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B91" s="11" t="s">
+      <c r="D91" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F91" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B92" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="E92" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F92" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4130,1335 +4233,1335 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="140.25" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="127.5" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="D6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="191.25" x14ac:dyDescent="0.5">
       <c r="B7" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B8" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="306" x14ac:dyDescent="0.5">
       <c r="B9" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B10" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="89.25" x14ac:dyDescent="0.5">
       <c r="B11" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="114.75" x14ac:dyDescent="0.5">
       <c r="B12" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="293.25" x14ac:dyDescent="0.5">
       <c r="B13" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B14" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="267.75" x14ac:dyDescent="0.5">
       <c r="B15" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B16" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="267.75" x14ac:dyDescent="0.5">
       <c r="B17" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B18" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="153" x14ac:dyDescent="0.5">
       <c r="B19" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B20" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B21" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B22" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B23" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B24" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B25" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B26" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B27" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B28" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B29" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B30" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B31" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B32" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="165.75" x14ac:dyDescent="0.5">
       <c r="B33" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B34" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B35" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B36" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="63.75" x14ac:dyDescent="0.5">
       <c r="B37" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B38" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B39" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B40" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B41" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B42" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B43" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B44" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B45" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B46" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B47" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B48" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B49" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B50" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B51" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B52" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B53" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B54" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="127.5" x14ac:dyDescent="0.5">
       <c r="B55" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B56" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B57" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B58" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B59" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="63.75" x14ac:dyDescent="0.5">
       <c r="B60" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="89.25" x14ac:dyDescent="0.5">
       <c r="B61" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B62" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B63" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="76.5" x14ac:dyDescent="0.5">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="114.75" x14ac:dyDescent="0.5">
       <c r="B65" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B66" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B67" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B68" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="76.5" x14ac:dyDescent="0.5">
       <c r="B69" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B70" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B71" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B72" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B73" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B74" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D74" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B75" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B76" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D76" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B77" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B78" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D78" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B79" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B80" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D80" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B81" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="306" x14ac:dyDescent="0.5">
       <c r="B82" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D82" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="280.5" x14ac:dyDescent="0.5">
       <c r="B83" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="408" x14ac:dyDescent="0.5">
       <c r="B84" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D84" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="409.5" x14ac:dyDescent="0.5">
       <c r="B85" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B86" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D86" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="51" x14ac:dyDescent="0.5">
       <c r="B87" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B88" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D88" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="63.75" x14ac:dyDescent="0.5">
       <c r="B89" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B90" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D90" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B92" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="E92" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="38.25" x14ac:dyDescent="0.5">
       <c r="B93" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="E93" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B94" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="E94" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="280.5" x14ac:dyDescent="0.5">
       <c r="B95" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="E95" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/Batch/Batch Function 20170130 For Dev.xlsx
+++ b/Batch/Batch Function 20170130 For Dev.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Trigger Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Batch Function'!$A$1:$G$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Batch Function'!$A$1:$G$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Trigger Summary'!$A$1:$E$95</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="F21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0">
+    <comment ref="F22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0">
+    <comment ref="C59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F87" authorId="0" shapeId="0">
+    <comment ref="F90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F89" authorId="0" shapeId="0">
+    <comment ref="F92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="414">
   <si>
     <t>SMS</t>
   </si>
@@ -1939,12 +1939,21 @@
   <si>
     <t>Req_Exempt_Credit_Control_YYYYMMDD_HH24MISS.dat</t>
   </si>
+  <si>
+    <t>WL,WLC, TL,TLC (Letter – Outbound)</t>
+  </si>
+  <si>
+    <t>TS,TSC (SMS – Outbound)</t>
+  </si>
+  <si>
+    <t>THR,THB (Debt - Outbound)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -2008,6 +2017,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2042,7 +2057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2101,6 +2116,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2416,11 +2432,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.5"/>
@@ -2749,172 +2765,136 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="F18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>30</v>
+        <v>412</v>
       </c>
       <c r="H18" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="F19" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="H19" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="F20" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="H20" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="A22" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H22" s="19" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="11" t="s">
+    <row r="23" spans="1:8" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="229.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="11" t="s">
+    <row r="24" spans="1:8" ht="229.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="15" t="s">
+    <row r="25" spans="1:8" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="D25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
@@ -2922,39 +2902,39 @@
         <v>40</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>87</v>
+        <v>35</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B27" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>44</v>
+      <c r="E27" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
@@ -2962,19 +2942,19 @@
         <v>40</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>44</v>
+      <c r="E28" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
@@ -2982,62 +2962,67 @@
         <v>40</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>149</v>
+        <v>31</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="63.75" hidden="1" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>112</v>
+      <c r="C30" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="15" t="s">
+      <c r="E30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="C31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B32" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>35</v>
@@ -3046,15 +3031,18 @@
         <v>149</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+        <v>83</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="63.75" hidden="1" x14ac:dyDescent="0.5">
       <c r="B33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>139</v>
+      <c r="C33" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>35</v>
@@ -3062,33 +3050,34 @@
       <c r="E33" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="11" t="s">
+      <c r="F33" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="2:7" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="C34" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
+      <c r="F34" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B35" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>35</v>
@@ -3097,15 +3086,15 @@
         <v>149</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B36" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>35</v>
@@ -3114,15 +3103,15 @@
         <v>149</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B37" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>35</v>
@@ -3131,7 +3120,7 @@
         <v>149</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
@@ -3139,7 +3128,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>35</v>
@@ -3148,15 +3137,15 @@
         <v>149</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B39" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>35</v>
@@ -3165,18 +3154,15 @@
         <v>149</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B40" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>35</v>
@@ -3185,15 +3171,15 @@
         <v>149</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B41" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>35</v>
@@ -3202,15 +3188,15 @@
         <v>149</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B42" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>152</v>
+      <c r="C42" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>35</v>
@@ -3219,15 +3205,18 @@
         <v>149</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="140.25" hidden="1" x14ac:dyDescent="0.5">
+        <v>182</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>155</v>
+      <c r="C43" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>35</v>
@@ -3236,112 +3225,103 @@
         <v>149</v>
       </c>
       <c r="F43" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="140.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="63.75" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.5">
       <c r="B47" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="63.75" hidden="1" x14ac:dyDescent="0.5">
       <c r="B48" s="11" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B49" s="11" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>33</v>
@@ -3353,38 +3333,38 @@
         <v>22</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B50" s="11" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B51" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>31</v>
@@ -3393,64 +3373,58 @@
         <v>22</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
-      <c r="A53" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="15" t="s">
+      <c r="C53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H53" s="15">
-        <v>100</v>
-      </c>
-      <c r="I53" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+      <c r="F53" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B54" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>31</v>
@@ -3459,7 +3433,7 @@
         <v>22</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>29</v>
@@ -3467,22 +3441,19 @@
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B55" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
@@ -3490,19 +3461,22 @@
         <v>406</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="H56" s="15">
         <v>100</v>
@@ -3511,143 +3485,152 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B57" s="11" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B58" s="11" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="15" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+        <v>228</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="A59" s="15" t="s">
+        <v>406</v>
+      </c>
       <c r="B59" s="15" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>149</v>
+      <c r="E59" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="H59" s="15">
+        <v>100</v>
+      </c>
+      <c r="I59" s="15">
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B60" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="15" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B63" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="12" t="s">
+      <c r="D63" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F63" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G63" s="11" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="15" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B64" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>153</v>
+      <c r="C64" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>35</v>
@@ -3656,15 +3639,18 @@
         <v>149</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="204" hidden="1" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B65" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>154</v>
+      <c r="C65" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>35</v>
@@ -3673,35 +3659,35 @@
         <v>149</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="15" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" s="12" t="s">
+      <c r="C66" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="F66" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B67" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>163</v>
+      <c r="C67" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>35</v>
@@ -3710,15 +3696,15 @@
         <v>149</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="89.25" hidden="1" x14ac:dyDescent="0.5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="204" hidden="1" x14ac:dyDescent="0.5">
       <c r="B68" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>164</v>
+      <c r="C68" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>35</v>
@@ -3727,35 +3713,35 @@
         <v>149</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B69" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>149</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B70" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>35</v>
@@ -3764,15 +3750,15 @@
         <v>149</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="89.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B71" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>35</v>
@@ -3781,156 +3767,144 @@
         <v>149</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+        <v>183</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B72" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C72" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B73" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B74" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B75" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="12" t="s">
+      <c r="D75" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F75" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G75" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="15" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="15" t="s">
+    <row r="76" spans="1:9" s="15" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B76" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" s="16" t="s">
+      <c r="D76" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F76" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G76" s="15" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
-      <c r="A75" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H75" s="15">
-        <v>100</v>
-      </c>
-      <c r="I75" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B77" s="11" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>178</v>
+      <c r="E77" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
       <c r="A78" s="15" t="s">
         <v>406</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>178</v>
+        <v>55</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>179</v>
+        <v>170</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="H78" s="15">
         <v>100</v>
@@ -3939,237 +3913,249 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B79" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B80" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.5">
+      <c r="A81" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H81" s="15">
+        <v>100</v>
+      </c>
+      <c r="I81" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B82" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G82" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="76.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="11" t="s">
+    <row r="83" spans="1:9" ht="76.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B83" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="11" t="s">
+      <c r="D83" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B81" s="11" t="s">
+    <row r="84" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B84" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="11" t="s">
+      <c r="D84" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B82" s="11" t="s">
+    <row r="85" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B85" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D85" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G85" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="11" t="s">
+    <row r="86" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B86" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E86" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F86" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G86" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B84" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B85" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A87" s="11" t="s">
-        <v>406</v>
-      </c>
+    <row r="87" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B87" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
       <c r="B88" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>234</v>
+        <v>35</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="76.5" x14ac:dyDescent="0.5">
-      <c r="A89" s="11" t="s">
-        <v>406</v>
-      </c>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B89" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>234</v>
+        <v>35</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A90" s="11" t="s">
+        <v>406</v>
+      </c>
       <c r="B90" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
+        <v>405</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="H90" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B91" s="11" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>225</v>
@@ -4178,28 +4164,88 @@
         <v>234</v>
       </c>
       <c r="F91" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="76.5" x14ac:dyDescent="0.5">
+      <c r="A92" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="H92" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B93" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B94" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F94" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.5">
-      <c r="B92" s="11" t="s">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+      <c r="B95" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C95" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E95" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F95" s="11" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G92">
+  <autoFilter ref="A1:G95">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/Batch/Batch Function 20170130 For Dev.xlsx
+++ b/Batch/Batch Function 20170130 For Dev.xlsx
@@ -2024,7 +2024,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2043,6 +2043,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2057,7 +2063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2117,6 +2123,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2435,8 +2444,8 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.5"/>
@@ -2738,7 +2747,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A17" s="15" t="s">
         <v>406</v>
       </c>
@@ -2764,31 +2773,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="F18" s="15" t="s">
         <v>412</v>
       </c>
       <c r="H18" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I18" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="F19" s="20" t="s">
         <v>411</v>
       </c>
       <c r="H19" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="I19" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="F20" s="15" t="s">
         <v>413</v>
       </c>
       <c r="H20" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="I20" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15" t="s">
         <v>406</v>
       </c>
@@ -2813,8 +2831,9 @@
       <c r="H21" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
       <c r="A22" s="19" t="s">
         <v>406</v>
       </c>
@@ -2840,7 +2859,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B23" s="11" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +2879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="229.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" ht="229.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B24" s="11" t="s">
         <v>0</v>
       </c>
@@ -2880,7 +2899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B25" s="15" t="s">
         <v>0</v>
       </c>
@@ -2897,7 +2916,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B26" s="11" t="s">
         <v>40</v>
       </c>
@@ -2917,7 +2936,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B27" s="11" t="s">
         <v>40</v>
       </c>
@@ -2937,7 +2956,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
@@ -2957,7 +2976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B29" s="11" t="s">
         <v>40</v>
       </c>
@@ -2977,7 +2996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B30" s="11" t="s">
         <v>40</v>
       </c>
@@ -2997,7 +3016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B31" s="11" t="s">
         <v>40</v>
       </c>
@@ -3017,7 +3036,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B32" s="11" t="s">
         <v>40</v>
       </c>
@@ -3909,9 +3928,7 @@
       <c r="H78" s="15">
         <v>100</v>
       </c>
-      <c r="I78" s="15">
-        <v>0</v>
-      </c>
+      <c r="I78" s="21"/>
     </row>
     <row r="79" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B79" s="11" t="s">
@@ -3975,9 +3992,7 @@
       <c r="H81" s="15">
         <v>100</v>
       </c>
-      <c r="I81" s="15">
-        <v>0</v>
-      </c>
+      <c r="I81" s="21"/>
     </row>
     <row r="82" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B82" s="11" t="s">
@@ -4149,6 +4164,7 @@
       <c r="H90" s="15">
         <v>100</v>
       </c>
+      <c r="I90" s="21"/>
     </row>
     <row r="91" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B91" s="11" t="s">
@@ -4192,6 +4208,7 @@
       <c r="H92" s="15">
         <v>100</v>
       </c>
+      <c r="I92" s="21"/>
     </row>
     <row r="93" spans="1:9" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B93" s="11" t="s">

--- a/Batch/Batch Function 20170130 For Dev.xlsx
+++ b/Batch/Batch Function 20170130 For Dev.xlsx
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="415">
   <si>
     <t>SMS</t>
   </si>
@@ -1947,6 +1947,9 @@
   </si>
   <si>
     <t>THR,THB (Debt - Outbound)</t>
+  </si>
+  <si>
+    <t>SIT</t>
   </si>
 </sst>
 </file>
@@ -2441,11 +2444,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.5"/>
@@ -2460,7 +2463,7 @@
     <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:10" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="s">
         <v>47</v>
       </c>
@@ -2485,8 +2488,11 @@
       <c r="I1" s="18" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
+      <c r="J1" s="18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" hidden="1" x14ac:dyDescent="0.5">
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:10" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:10" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:10" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:10" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
@@ -2577,7 +2583,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.5">
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.5">
       <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:9" hidden="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:10" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:10" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:10" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B12" s="11" t="s">
         <v>67</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:10" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B13" s="11" t="s">
         <v>67</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:10" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B14" s="11" t="s">
         <v>67</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:10" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B15" s="11" t="s">
         <v>67</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:10" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B16" s="11" t="s">
         <v>67</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A17" s="15" t="s">
         <v>406</v>
       </c>
@@ -2773,18 +2779,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="F18" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="21">
         <v>100</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="21">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="J18" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="F19" s="20" t="s">
         <v>411</v>
       </c>
@@ -2795,7 +2804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="F20" s="15" t="s">
         <v>413</v>
       </c>
@@ -2806,7 +2815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15" t="s">
         <v>406</v>
       </c>
@@ -2828,12 +2837,17 @@
       <c r="G21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="21">
         <v>100</v>
       </c>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+      <c r="I21" s="21">
+        <v>100</v>
+      </c>
+      <c r="J21" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
       <c r="A22" s="19" t="s">
         <v>406</v>
       </c>
@@ -2859,7 +2873,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B23" s="11" t="s">
         <v>0</v>
       </c>
@@ -2879,7 +2893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="229.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" ht="229.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B24" s="11" t="s">
         <v>0</v>
       </c>
@@ -2899,7 +2913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" s="15" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B25" s="15" t="s">
         <v>0</v>
       </c>
@@ -2916,7 +2930,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B26" s="11" t="s">
         <v>40</v>
       </c>
@@ -2936,7 +2950,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B27" s="11" t="s">
         <v>40</v>
       </c>
@@ -2956,7 +2970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
@@ -2976,7 +2990,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B29" s="11" t="s">
         <v>40</v>
       </c>
@@ -2996,7 +3010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B30" s="11" t="s">
         <v>40</v>
       </c>
@@ -3016,7 +3030,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B31" s="11" t="s">
         <v>40</v>
       </c>
@@ -3036,7 +3050,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B32" s="11" t="s">
         <v>40</v>
       </c>
@@ -3970,7 +3984,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:10" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.5">
       <c r="A81" s="15" t="s">
         <v>406</v>
       </c>
@@ -3994,7 +4008,7 @@
       </c>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B82" s="11" t="s">
         <v>176</v>
       </c>
@@ -4014,7 +4028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="76.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:10" ht="76.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B83" s="11" t="s">
         <v>129</v>
       </c>
@@ -4031,7 +4045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B84" s="11" t="s">
         <v>129</v>
       </c>
@@ -4048,7 +4062,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.5">
       <c r="B85" s="11" t="s">
         <v>207</v>
       </c>
@@ -4068,7 +4082,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B86" s="11" t="s">
         <v>212</v>
       </c>
@@ -4088,7 +4102,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B87" s="11" t="s">
         <v>36</v>
       </c>
@@ -4105,7 +4119,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.5">
       <c r="B88" s="11" t="s">
         <v>36</v>
       </c>
@@ -4122,7 +4136,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B89" s="11" t="s">
         <v>36</v>
       </c>
@@ -4139,7 +4153,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:10" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A90" s="11" t="s">
         <v>406</v>
       </c>
@@ -4161,12 +4175,17 @@
       <c r="G90" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H90" s="21">
         <v>100</v>
       </c>
-      <c r="I90" s="21"/>
-    </row>
-    <row r="91" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
+      <c r="I90" s="21">
+        <v>100</v>
+      </c>
+      <c r="J90" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.5">
       <c r="B91" s="11" t="s">
         <v>36</v>
       </c>
@@ -4183,7 +4202,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="76.5" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:10" ht="76.5" x14ac:dyDescent="0.5">
       <c r="A92" s="11" t="s">
         <v>406</v>
       </c>
@@ -4205,12 +4224,17 @@
       <c r="G92" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="H92" s="15">
+      <c r="H92" s="21">
         <v>100</v>
       </c>
-      <c r="I92" s="21"/>
-    </row>
-    <row r="93" spans="1:9" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="I92" s="21">
+        <v>100</v>
+      </c>
+      <c r="J92" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="178.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="B93" s="11" t="s">
         <v>36</v>
       </c>
@@ -4227,7 +4251,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.5">
       <c r="B94" s="11" t="s">
         <v>232</v>
       </c>
@@ -4244,7 +4268,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.5">
       <c r="B95" s="11" t="s">
         <v>245</v>
       </c>

--- a/Batch/Batch Function 20170130 For Dev.xlsx
+++ b/Batch/Batch Function 20170130 For Dev.xlsx
@@ -141,6 +141,28 @@
           </rPr>
           <t xml:space="preserve">
 เอกสาร Blacklist ดูว่าเป็น blacklist หรือ deblacklist จาก field blacklistflag</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F78" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Sirirat-NB:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Collection Interface ระบบ Payment v2.3 20161026 หัวข้อ 3.1.1.8</t>
         </r>
       </text>
     </comment>
@@ -2446,9 +2468,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.5"/>
@@ -2458,7 +2480,7 @@
     <col min="3" max="3" width="42.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="84" style="11" customWidth="1"/>
+    <col min="6" max="6" width="89.42578125" style="11" customWidth="1"/>
     <col min="7" max="7" width="50.140625" style="11" customWidth="1"/>
     <col min="8" max="16384" width="9" style="11"/>
   </cols>
@@ -3917,7 +3939,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:9" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A78" s="15" t="s">
         <v>406</v>
       </c>
